--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件撤诉件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件撤诉件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,919 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4535</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15947</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4195</v>
+      </c>
+      <c r="G2" t="n">
+        <v>668</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11153</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11326</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1291</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1273</v>
+      </c>
+      <c r="L2" t="n">
+        <v>245</v>
+      </c>
       <c r="M2" t="n">
-        <v>31822</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>57745</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3112</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19979</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5214</v>
+      </c>
+      <c r="G3" t="n">
+        <v>876</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11140</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11199</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1649</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1194</v>
+      </c>
+      <c r="L3" t="n">
+        <v>225</v>
+      </c>
       <c r="M3" t="n">
-        <v>31083</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>65389</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5228</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1742</v>
+        <v>1341</v>
       </c>
       <c r="C4" t="n">
-        <v>1006</v>
+        <v>1665</v>
       </c>
       <c r="D4" t="n">
-        <v>3351</v>
+        <v>5874</v>
       </c>
       <c r="E4" t="n">
-        <v>7135</v>
+        <v>19253</v>
       </c>
       <c r="F4" t="n">
-        <v>828</v>
+        <v>5194</v>
       </c>
       <c r="G4" t="n">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="H4" t="n">
-        <v>3912</v>
+        <v>8839</v>
       </c>
       <c r="I4" t="n">
-        <v>4977</v>
+        <v>10772</v>
       </c>
       <c r="J4" t="n">
-        <v>919</v>
+        <v>2284</v>
       </c>
       <c r="K4" t="n">
-        <v>654</v>
+        <v>1209</v>
       </c>
       <c r="L4" t="n">
-        <v>733</v>
+        <v>191</v>
       </c>
       <c r="M4" t="n">
-        <v>26052</v>
+        <v>64104</v>
       </c>
       <c r="N4" t="n">
-        <v>348</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="C5" t="n">
-        <v>1261</v>
+        <v>1638</v>
       </c>
       <c r="D5" t="n">
-        <v>3373</v>
+        <v>4739</v>
       </c>
       <c r="E5" t="n">
-        <v>8836</v>
+        <v>14833</v>
       </c>
       <c r="F5" t="n">
-        <v>904</v>
+        <v>4443</v>
       </c>
       <c r="G5" t="n">
-        <v>322</v>
+        <v>436</v>
       </c>
       <c r="H5" t="n">
-        <v>4348</v>
+        <v>6477</v>
       </c>
       <c r="I5" t="n">
-        <v>6313</v>
+        <v>8155</v>
       </c>
       <c r="J5" t="n">
-        <v>974</v>
+        <v>2038</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>598</v>
       </c>
       <c r="L5" t="n">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="M5" t="n">
-        <v>27811</v>
+        <v>50521</v>
       </c>
       <c r="N5" t="n">
-        <v>326</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1555</v>
+        <v>702</v>
       </c>
       <c r="C6" t="n">
-        <v>1009</v>
+        <v>1199</v>
       </c>
       <c r="D6" t="n">
-        <v>3167</v>
+        <v>4668</v>
       </c>
       <c r="E6" t="n">
-        <v>7471</v>
+        <v>13351</v>
       </c>
       <c r="F6" t="n">
-        <v>1332</v>
+        <v>3366</v>
       </c>
       <c r="G6" t="n">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="H6" t="n">
-        <v>5245</v>
+        <v>4623</v>
       </c>
       <c r="I6" t="n">
-        <v>5819</v>
+        <v>5414</v>
       </c>
       <c r="J6" t="n">
-        <v>1542</v>
+        <v>1775</v>
       </c>
       <c r="K6" t="n">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>338</v>
+        <v>137</v>
       </c>
       <c r="M6" t="n">
-        <v>28246</v>
+        <v>39592</v>
       </c>
       <c r="N6" t="n">
-        <v>268</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1618</v>
+        <v>913</v>
       </c>
       <c r="C7" t="n">
-        <v>995</v>
+        <v>1327</v>
       </c>
       <c r="D7" t="n">
-        <v>2780</v>
+        <v>5084</v>
       </c>
       <c r="E7" t="n">
-        <v>7684</v>
+        <v>16847</v>
       </c>
       <c r="F7" t="n">
-        <v>1900</v>
+        <v>3717</v>
       </c>
       <c r="G7" t="n">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="H7" t="n">
-        <v>5163</v>
+        <v>5179</v>
       </c>
       <c r="I7" t="n">
-        <v>5729</v>
+        <v>6946</v>
       </c>
       <c r="J7" t="n">
-        <v>1014</v>
+        <v>1453</v>
       </c>
       <c r="K7" t="n">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="L7" t="n">
-        <v>572</v>
+        <v>149</v>
       </c>
       <c r="M7" t="n">
-        <v>28539</v>
+        <v>42925</v>
       </c>
       <c r="N7" t="n">
-        <v>535</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847</v>
+        <v>1060</v>
       </c>
       <c r="C8" t="n">
-        <v>1924</v>
+        <v>1110</v>
       </c>
       <c r="D8" t="n">
-        <v>2858</v>
+        <v>6184</v>
       </c>
       <c r="E8" t="n">
-        <v>7443</v>
+        <v>17923</v>
       </c>
       <c r="F8" t="n">
-        <v>2399</v>
+        <v>3702</v>
       </c>
       <c r="G8" t="n">
-        <v>545</v>
+        <v>149</v>
       </c>
       <c r="H8" t="n">
-        <v>6413</v>
+        <v>5199</v>
       </c>
       <c r="I8" t="n">
-        <v>6850</v>
+        <v>6682</v>
       </c>
       <c r="J8" t="n">
-        <v>1180</v>
+        <v>1421</v>
       </c>
       <c r="K8" t="n">
-        <v>662</v>
+        <v>245</v>
       </c>
       <c r="L8" t="n">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="M8" t="n">
-        <v>31801</v>
+        <v>44303</v>
       </c>
       <c r="N8" t="n">
-        <v>507</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>917</v>
+        <v>1474</v>
       </c>
       <c r="C9" t="n">
-        <v>2856</v>
+        <v>791</v>
       </c>
       <c r="D9" t="n">
-        <v>3585</v>
+        <v>5782</v>
       </c>
       <c r="E9" t="n">
-        <v>8518</v>
+        <v>19663</v>
       </c>
       <c r="F9" t="n">
-        <v>2787</v>
+        <v>3004</v>
       </c>
       <c r="G9" t="n">
-        <v>411</v>
+        <v>123</v>
       </c>
       <c r="H9" t="n">
-        <v>7421</v>
+        <v>4894</v>
       </c>
       <c r="I9" t="n">
-        <v>7956</v>
+        <v>7428</v>
       </c>
       <c r="J9" t="n">
-        <v>1301</v>
+        <v>1609</v>
       </c>
       <c r="K9" t="n">
-        <v>738</v>
+        <v>292</v>
       </c>
       <c r="L9" t="n">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="M9" t="n">
-        <v>37210</v>
+        <v>47880</v>
       </c>
       <c r="N9" t="n">
-        <v>612</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2131</v>
+        <v>1480</v>
       </c>
       <c r="C10" t="n">
-        <v>1903</v>
+        <v>533</v>
       </c>
       <c r="D10" t="n">
-        <v>4332</v>
+        <v>4633</v>
       </c>
       <c r="E10" t="n">
-        <v>9974</v>
+        <v>26288</v>
       </c>
       <c r="F10" t="n">
-        <v>2670</v>
+        <v>3244</v>
       </c>
       <c r="G10" t="n">
-        <v>346</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
-        <v>6639</v>
+        <v>5414</v>
       </c>
       <c r="I10" t="n">
-        <v>7886</v>
+        <v>6701</v>
       </c>
       <c r="J10" t="n">
-        <v>1463</v>
+        <v>1907</v>
       </c>
       <c r="K10" t="n">
-        <v>1065</v>
+        <v>386</v>
       </c>
       <c r="L10" t="n">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="M10" t="n">
-        <v>39169</v>
+        <v>50967</v>
       </c>
       <c r="N10" t="n">
-        <v>645</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1836</v>
+        <v>2859</v>
       </c>
       <c r="C11" t="n">
-        <v>1236</v>
+        <v>661</v>
       </c>
       <c r="D11" t="n">
-        <v>3739</v>
+        <v>5597</v>
       </c>
       <c r="E11" t="n">
-        <v>12327</v>
+        <v>24526</v>
       </c>
       <c r="F11" t="n">
-        <v>3048</v>
+        <v>4154</v>
       </c>
       <c r="G11" t="n">
-        <v>487</v>
+        <v>164</v>
       </c>
       <c r="H11" t="n">
-        <v>8722</v>
+        <v>5827</v>
       </c>
       <c r="I11" t="n">
-        <v>8836</v>
+        <v>8230</v>
       </c>
       <c r="J11" t="n">
-        <v>1607</v>
+        <v>2197</v>
       </c>
       <c r="K11" t="n">
-        <v>2162</v>
+        <v>584</v>
       </c>
       <c r="L11" t="n">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="M11" t="n">
-        <v>46327</v>
+        <v>55049</v>
       </c>
       <c r="N11" t="n">
-        <v>2166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2104</v>
+        <v>3583</v>
       </c>
       <c r="C12" t="n">
-        <v>1896</v>
+        <v>1148</v>
       </c>
       <c r="D12" t="n">
-        <v>4535</v>
+        <v>6851</v>
       </c>
       <c r="E12" t="n">
-        <v>15947</v>
+        <v>16444</v>
       </c>
       <c r="F12" t="n">
-        <v>4195</v>
+        <v>5471</v>
       </c>
       <c r="G12" t="n">
-        <v>668</v>
+        <v>224</v>
       </c>
       <c r="H12" t="n">
-        <v>11153</v>
+        <v>7285</v>
       </c>
       <c r="I12" t="n">
-        <v>11326</v>
+        <v>9899</v>
       </c>
       <c r="J12" t="n">
-        <v>1291</v>
+        <v>1741</v>
       </c>
       <c r="K12" t="n">
-        <v>1273</v>
+        <v>554</v>
       </c>
       <c r="L12" t="n">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="M12" t="n">
-        <v>57745</v>
+        <v>53423</v>
       </c>
       <c r="N12" t="n">
-        <v>3112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2042</v>
+        <v>4221</v>
       </c>
       <c r="C13" t="n">
-        <v>1796</v>
+        <v>955</v>
       </c>
       <c r="D13" t="n">
-        <v>4847</v>
+        <v>8189</v>
       </c>
       <c r="E13" t="n">
-        <v>19979</v>
+        <v>16444</v>
       </c>
       <c r="F13" t="n">
-        <v>5214</v>
+        <v>5391</v>
       </c>
       <c r="G13" t="n">
-        <v>876</v>
+        <v>270</v>
       </c>
       <c r="H13" t="n">
-        <v>11140</v>
+        <v>8896</v>
       </c>
       <c r="I13" t="n">
-        <v>11199</v>
+        <v>11471</v>
       </c>
       <c r="J13" t="n">
-        <v>1649</v>
+        <v>2118</v>
       </c>
       <c r="K13" t="n">
-        <v>1194</v>
+        <v>902</v>
       </c>
       <c r="L13" t="n">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M13" t="n">
-        <v>65389</v>
+        <v>59095</v>
       </c>
       <c r="N13" t="n">
-        <v>5228</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1341</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1665</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5874</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19253</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5194</v>
-      </c>
-      <c r="G14" t="n">
-        <v>546</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8839</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10772</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2284</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1209</v>
-      </c>
-      <c r="L14" t="n">
-        <v>191</v>
-      </c>
-      <c r="M14" t="n">
-        <v>64104</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6936</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>808</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1638</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4739</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14833</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4443</v>
-      </c>
-      <c r="G15" t="n">
-        <v>436</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6477</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8155</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2038</v>
-      </c>
-      <c r="K15" t="n">
-        <v>598</v>
-      </c>
-      <c r="L15" t="n">
-        <v>198</v>
-      </c>
-      <c r="M15" t="n">
-        <v>50521</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>702</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1199</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4668</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13351</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3366</v>
-      </c>
-      <c r="G16" t="n">
-        <v>287</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4623</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5414</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1775</v>
-      </c>
-      <c r="K16" t="n">
-        <v>417</v>
-      </c>
-      <c r="L16" t="n">
-        <v>137</v>
-      </c>
-      <c r="M16" t="n">
-        <v>39592</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>913</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1327</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5084</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16847</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3717</v>
-      </c>
-      <c r="G17" t="n">
-        <v>168</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5179</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6946</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1453</v>
-      </c>
-      <c r="K17" t="n">
-        <v>328</v>
-      </c>
-      <c r="L17" t="n">
-        <v>149</v>
-      </c>
-      <c r="M17" t="n">
-        <v>42925</v>
-      </c>
-      <c r="N17" t="n">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6184</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17923</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3702</v>
-      </c>
-      <c r="G18" t="n">
-        <v>149</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5199</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6682</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1421</v>
-      </c>
-      <c r="K18" t="n">
-        <v>245</v>
-      </c>
-      <c r="L18" t="n">
-        <v>216</v>
-      </c>
-      <c r="M18" t="n">
-        <v>44303</v>
-      </c>
-      <c r="N18" t="n">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1474</v>
-      </c>
-      <c r="C19" t="n">
-        <v>791</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5782</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19663</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3004</v>
-      </c>
-      <c r="G19" t="n">
-        <v>123</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4894</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7428</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1609</v>
-      </c>
-      <c r="K19" t="n">
-        <v>292</v>
-      </c>
-      <c r="L19" t="n">
-        <v>195</v>
-      </c>
-      <c r="M19" t="n">
-        <v>47880</v>
-      </c>
-      <c r="N19" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1480</v>
-      </c>
-      <c r="C20" t="n">
-        <v>533</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4633</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26288</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3244</v>
-      </c>
-      <c r="G20" t="n">
-        <v>84</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5414</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6701</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1907</v>
-      </c>
-      <c r="K20" t="n">
-        <v>386</v>
-      </c>
-      <c r="L20" t="n">
-        <v>238</v>
-      </c>
-      <c r="M20" t="n">
-        <v>50967</v>
-      </c>
-      <c r="N20" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2859</v>
-      </c>
-      <c r="C21" t="n">
-        <v>661</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5597</v>
-      </c>
-      <c r="E21" t="n">
-        <v>24526</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4154</v>
-      </c>
-      <c r="G21" t="n">
-        <v>164</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5827</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8230</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2197</v>
-      </c>
-      <c r="K21" t="n">
-        <v>584</v>
-      </c>
-      <c r="L21" t="n">
-        <v>208</v>
-      </c>
-      <c r="M21" t="n">
-        <v>55049</v>
-      </c>
-      <c r="N21" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3583</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1148</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6851</v>
-      </c>
-      <c r="E22" t="n">
-        <v>16444</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5471</v>
-      </c>
-      <c r="G22" t="n">
-        <v>224</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7285</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9899</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1741</v>
-      </c>
-      <c r="K22" t="n">
-        <v>554</v>
-      </c>
-      <c r="L22" t="n">
-        <v>182</v>
-      </c>
-      <c r="M22" t="n">
-        <v>53423</v>
-      </c>
-      <c r="N22" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
